--- a/xlsx/玻利维亚_intext.xlsx
+++ b/xlsx/玻利维亚_intext.xlsx
@@ -15,1403 +15,1394 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="646">
   <si>
     <t>玻利维亚</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>玻利维亚国旗</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_玻利维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E%E5%9C%8B%E5%BE%BD</t>
+  </si>
+  <si>
+    <t>玻利维亚国徽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家格言列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E7%B5%90%E5%B0%B1%E6%98%AF%E5%8A%9B%E9%87%8F_(%E6%A0%BC%E8%A8%80)</t>
+  </si>
+  <si>
+    <t>团结就是力量 (格言)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
+  </si>
+  <si>
+    <t>国歌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E4%BA%BA%EF%BC%8C%E6%9C%89%E5%88%A9%E5%91%BD%E8%BF%90</t>
+  </si>
+  <si>
+    <t>玻利维亚人，有利命运</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
+  </si>
+  <si>
+    <t>首都</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%85%8B%E9%9B%B7</t>
+  </si>
+  <si>
+    <t>苏克雷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E6%96%AF</t>
+  </si>
+  <si>
+    <t>拉巴斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C%E6%89%80%E5%9C%A8%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>中央政府所在地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E9%B2%81%E6%96%AF_(%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A)</t>
+  </si>
+  <si>
+    <t>圣克鲁斯 (玻利维亚)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%84%E7%9A%84%E5%96%80%E5%96%80%E6%B9%96</t>
+  </si>
+  <si>
+    <t>的的喀喀湖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
+  </si>
+  <si>
+    <t>时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-4</t>
+  </si>
+  <si>
+    <t>UTC-4</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2013年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口密度列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>官方语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E4%B8%98%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>克丘亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%A6%AC%E6%8B%89%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>艾马拉语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E6%8B%89%E5%B0%BC%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>瓜拉尼语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
+  </si>
+  <si>
+    <t>官方文字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
+  </si>
+  <si>
+    <t>电</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
+  </si>
+  <si>
+    <t>电压</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>家用电源列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
+  </si>
+  <si>
+    <t>频率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
+  </si>
+  <si>
+    <t>政治体制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
+  </si>
+  <si>
+    <t>总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
+  </si>
+  <si>
+    <t>国家元首</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>玻利维亚总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%B2%83%C2%B7%E8%8E%AB%E6%8B%89%E8%8E%B1%E6%96%AF</t>
+  </si>
+  <si>
+    <t>埃沃·莫拉莱斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
+  </si>
+  <si>
+    <t>政府首脑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
+  </si>
+  <si>
+    <t>国内生产总值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
+  </si>
+  <si>
+    <t>购买力平价</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2016年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>人类发展指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>中央银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E%E8%AB%BE</t>
+  </si>
+  <si>
+    <t>玻利维亚诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
+  </si>
+  <si>
+    <t>吉尼系数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
+  </si>
+  <si>
+    <t>ISO 3166-1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
+  </si>
+  <si>
+    <t>国际域名缩写</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/BO</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国际电话区号列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A_(%E5%8F%A4%E5%B7%B4)</t>
+  </si>
+  <si>
+    <t>玻利维亚 (古巴)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%99%B8%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>内陆国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>南美洲国家联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>巴拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%AE%96%E6%B0%91</t>
+  </si>
+  <si>
+    <t>美洲殖民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%AC%AC%E6%96%AF%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>安第斯山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8A%A0%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>印加帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>西班牙帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E6%80%BB%E7%9D%A3%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>秘鲁总督区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E7%8E%BB%E5%88%A9%E7%93%A6%E5%B0%94</t>
+  </si>
+  <si>
+    <t>西蒙·玻利瓦尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>玻利维亚历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E6%8B%89%E5%A1%94%E6%80%BB%E7%9D%A3%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>拉普拉塔总督区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%89%E5%8A%A0%E6%96%AF</t>
+  </si>
+  <si>
+    <t>加拉加斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%93%A6%E7%88%BE</t>
+  </si>
+  <si>
+    <t>玻利瓦尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A1%9D%E7%9F%B3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>硝石战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BF%B1%E6%B5%B7%E7%9C%81</t>
+  </si>
+  <si>
+    <t>滨海省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%89%98%E6%B3%95%E5%8A%A0%E6%96%AF%E5%A1%94</t>
+  </si>
+  <si>
+    <t>安托法加斯塔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E8%BF%AA%E7%BD%97</t>
+  </si>
+  <si>
+    <t>考迪罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%93%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>当代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>土地改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%A6%AC%E6%8B%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>艾马拉人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印第安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%89%E5%8F%96%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E8%BF%90%E5%8A%A8_(%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A)</t>
+  </si>
+  <si>
+    <t>争取社会主义运动 (玻利维亚)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
+  </si>
+  <si>
+    <t>美洲原住民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
+  </si>
+  <si>
+    <t>左翼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%8B%89%E8%90%8A%E6%96%AF</t>
+  </si>
+  <si>
+    <t>莫拉莱斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E4%BC%8A%E7%BA%B3%E8%A5%BF%E5%A5%A5%C2%B7%E5%8D%A2%E6%8B%89%C2%B7%E8%BE%BE%E5%B8%AD%E5%B0%94%E7%93%A6</t>
+  </si>
+  <si>
+    <t>路易斯·伊纳西奥·卢拉·达席尔瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E7%88%BE%E7%91%AA%C2%B7%E7%BE%85%E5%A1%9E%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>迪尔玛·罗塞夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E6%96%AF%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>安地斯山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E9%AB%98%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>玻利维亚高原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%AE%9C%E9%A6%AC%E5%B0%BC%E5%B3%B0</t>
+  </si>
+  <si>
+    <t>伊宜马尼峰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E6%96%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>安地斯山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E6%A3%AE%E6%9E%97</t>
+  </si>
+  <si>
+    <t>亚马逊森林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%B2%81%E7%BD%97%E7%9C%81</t>
+  </si>
+  <si>
+    <t>奥鲁罗省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B0%A4%E5%B0%BC%E9%B9%BD%E6%B2%BC</t>
+  </si>
+  <si>
+    <t>乌尤尼盐沼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%81%B0%E7%8F%AD%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>科恰班巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>玻利维亚行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%98%E5%9F%BA%E8%90%A8%E5%8D%A1%E7%9C%81</t>
+  </si>
+  <si>
+    <t>丘基萨卡省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%81%B0%E7%8F%AD%E5%B7%B4%E7%9C%81</t>
+  </si>
+  <si>
+    <t>科恰班巴省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%BC%E7%9C%81</t>
+  </si>
+  <si>
+    <t>贝尼省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E6%96%AF%E7%9C%81</t>
+  </si>
+  <si>
+    <t>拉巴斯省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E5%A4%9A%E7%9C%81</t>
+  </si>
+  <si>
+    <t>潘多省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%89%98%E8%A5%BF%E7%9C%81</t>
+  </si>
+  <si>
+    <t>波托西省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E9%B2%81%E6%96%AF%E7%9C%81</t>
+  </si>
+  <si>
+    <t>圣克鲁斯省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E9%87%8C%E5%93%88%E7%9C%81</t>
+  </si>
+  <si>
+    <t>塔里哈省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%96%AF%E8%92%82%E7%B4%A2%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>梅斯蒂索人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E4%B8%98%E4%BA%9E%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>克丘亚人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%9C%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>藜麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Yuki</t>
+  </si>
+  <si>
+    <t>Yuki</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
+  </si>
+  <si>
+    <t>International Monetary Fund</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/United_Nations</t>
+  </si>
+  <si>
+    <t>United Nations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%B0%E9%97%BB</t>
+  </si>
+  <si>
+    <t>维基新闻</t>
+  </si>
+  <si>
+    <t>https://zh.wikinews.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E%E6%8A%8A%E5%A4%96%E8%B3%87%E6%B0%A3%E7%94%B0%E6%94%B6%E6%AD%B8%E5%9C%8B%E6%9C%89</t>
+  </si>
+  <si>
+    <t>n-玻利维亚把外资气田收归国有</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
+  </si>
+  <si>
+    <t>维基导游</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
+  </si>
+  <si>
+    <t>世界概况</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
+  </si>
+  <si>
+    <t>开放式目录</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:America</t>
+  </si>
+  <si>
+    <t>Template talk-America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>中美 (政治地理学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
+  </si>
+  <si>
+    <t>伯利兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>萨尔瓦多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>加勒比海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>安提瓜和巴布达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴哈马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
+  </si>
+  <si>
+    <t>巴巴多斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
+  </si>
+  <si>
+    <t>多米尼克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>多明尼加共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>格林纳达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>牙买加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣克里斯多福与尼维斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>圣卢西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣文森特和格林纳丁斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
+  </si>
+  <si>
+    <t>千里达及托巴哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
+  </si>
+  <si>
+    <t>圭亚那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
+  </si>
+  <si>
+    <t>苏利南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安圭拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>阿鲁巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>库拉索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
+  </si>
+  <si>
+    <t>荷属圣马丁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>英属维京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>百慕大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>开曼群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>福克兰群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
+  </si>
+  <si>
+    <t>法属圭亚那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
+  </si>
+  <si>
+    <t>格陵兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
+  </si>
+  <si>
+    <t>瓜德罗普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
+  </si>
+  <si>
+    <t>马提尼克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
+  </si>
+  <si>
+    <t>法属圣马丁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>圣巴泰勒米岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>蒙塞拉特岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>纳弗沙岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
+  </si>
+  <si>
+    <t>圣皮埃尔和密克隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%92%8C%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>南乔治亚和南桑威奇群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E5%92%8C%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>特克斯和凯科斯群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E7%8E%BB%E5%88%A9%E7%93%A6%E7%88%BE%E5%90%8C%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>美洲玻利瓦尔同盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
+  </si>
+  <si>
+    <t>安地卡及巴布达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
+  </si>
+  <si>
+    <t>圣文森及格瑞那丁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>拉丁语联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
+  </si>
+  <si>
+    <t>梵蒂冈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>马尔他骑士团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BA%B3%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩纳哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多明尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安哥拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
+  </si>
+  <si>
+    <t>佛得角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
+  </si>
+  <si>
+    <t>科特迪瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>几内亚比索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
+  </si>
+  <si>
+    <t>圣多美和普林西比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞内加尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>加泰罗尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>义大利语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>葡萄牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>罗马尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E8%BE%93%E5%87%BA%E5%9B%BD%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>石油输出国组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>海湾地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>沙乌地阿拉伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>阿拉伯联合大公国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
+  </si>
+  <si>
+    <t>卡达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
+  </si>
+  <si>
+    <t>科威特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>奈及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
+  </si>
+  <si>
+    <t>加彭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>赤道几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>苏丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>不结盟运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
+  </si>
+  <si>
+    <t>阿富汗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
+  </si>
+  <si>
+    <t>巴林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>孟加拉国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
+  </si>
+  <si>
+    <t>贝宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>不丹</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>玻利维亚国旗</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_玻利维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E%E5%9C%8B%E5%BE%BD</t>
-  </si>
-  <si>
-    <t>玻利維亞國徽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家格言列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E7%B5%90%E5%B0%B1%E6%98%AF%E5%8A%9B%E9%87%8F_(%E6%A0%BC%E8%A8%80)</t>
-  </si>
-  <si>
-    <t>團結就是力量 (格言)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
-  </si>
-  <si>
-    <t>國歌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E4%BA%BA%EF%BC%8C%E6%9C%89%E5%88%A9%E5%91%BD%E8%BF%90</t>
-  </si>
-  <si>
-    <t>玻利维亚人，有利命运</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國家面積列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
-  </si>
-  <si>
-    <t>首都</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%85%8B%E9%9B%B7</t>
-  </si>
-  <si>
-    <t>蘇克雷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E6%96%AF</t>
-  </si>
-  <si>
-    <t>拉巴斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C%E6%89%80%E5%9C%A8%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>中央政府所在地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E9%B2%81%E6%96%AF_(%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A)</t>
-  </si>
-  <si>
-    <t>圣克鲁斯 (玻利维亚)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%84%E7%9A%84%E5%96%80%E5%96%80%E6%B9%96</t>
-  </si>
-  <si>
-    <t>的的喀喀湖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
-  </si>
-  <si>
-    <t>時區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-4</t>
-  </si>
-  <si>
-    <t>UTC-4</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國家人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2013年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家人口密度列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>官方語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E4%B8%98%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>克丘亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%A6%AC%E6%8B%89%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>艾馬拉語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E6%8B%89%E5%B0%BC%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>瓜拉尼語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
-  </si>
-  <si>
-    <t>官方文字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
-  </si>
-  <si>
-    <t>電</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
-  </si>
-  <si>
-    <t>電壓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>家用電源列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
-  </si>
-  <si>
-    <t>頻率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
-  </si>
-  <si>
-    <t>政治體制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
-  </si>
-  <si>
-    <t>總統制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
-  </si>
-  <si>
-    <t>國家元首</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>玻利维亚总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%B2%83%C2%B7%E8%8E%AB%E6%8B%89%E8%8E%B1%E6%96%AF</t>
-  </si>
-  <si>
-    <t>埃沃·莫拉莱斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
-  </si>
-  <si>
-    <t>政府首腦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
-  </si>
-  <si>
-    <t>國內生產總值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
-  </si>
-  <si>
-    <t>購買力平價</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>人類發展指數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>中央銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E%E8%AB%BE</t>
-  </si>
-  <si>
-    <t>玻利維亞諾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
-  </si>
-  <si>
-    <t>吉尼系数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
-  </si>
-  <si>
-    <t>ISO 3166-1</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
-  </si>
-  <si>
-    <t>國際域名縮寫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/BO</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國際電話區號列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A_(%E5%8F%A4%E5%B7%B4)</t>
-  </si>
-  <si>
-    <t>玻利维亚 (古巴)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%99%B8%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>內陸國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>南美洲国家联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
-  </si>
-  <si>
-    <t>秘魯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%AE%96%E6%B0%91</t>
-  </si>
-  <si>
-    <t>美洲殖民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%AC%AC%E6%96%AF%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>安第斯山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8A%A0%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>印加帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>西班牙帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E6%80%BB%E7%9D%A3%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>秘鲁总督区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E7%8E%BB%E5%88%A9%E7%93%A6%E5%B0%94</t>
-  </si>
-  <si>
-    <t>西蒙·玻利瓦尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>玻利维亚历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E6%8B%89%E5%A1%94%E6%80%BB%E7%9D%A3%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>拉普拉塔总督区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%89%E5%8A%A0%E6%96%AF</t>
-  </si>
-  <si>
-    <t>加拉加斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%93%A6%E7%88%BE</t>
-  </si>
-  <si>
-    <t>玻利瓦爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A1%9D%E7%9F%B3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>硝石戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BF%B1%E6%B5%B7%E7%9C%81</t>
-  </si>
-  <si>
-    <t>濱海省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%89%98%E6%B3%95%E5%8A%A0%E6%96%AF%E5%A1%94</t>
-  </si>
-  <si>
-    <t>安托法加斯塔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E8%BF%AA%E7%BD%97</t>
-  </si>
-  <si>
-    <t>考迪罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%93%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>当代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>土地改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%A6%AC%E6%8B%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>艾馬拉人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印第安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%89%E5%8F%96%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E8%BF%90%E5%8A%A8_(%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A)</t>
-  </si>
-  <si>
-    <t>争取社会主义运动 (玻利维亚)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
-  </si>
-  <si>
-    <t>美洲原住民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
-  </si>
-  <si>
-    <t>左翼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%8B%89%E8%90%8A%E6%96%AF</t>
-  </si>
-  <si>
-    <t>莫拉萊斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E4%BC%8A%E7%BA%B3%E8%A5%BF%E5%A5%A5%C2%B7%E5%8D%A2%E6%8B%89%C2%B7%E8%BE%BE%E5%B8%AD%E5%B0%94%E7%93%A6</t>
-  </si>
-  <si>
-    <t>路易斯·伊纳西奥·卢拉·达席尔瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E7%88%BE%E7%91%AA%C2%B7%E7%BE%85%E5%A1%9E%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>迪爾瑪·羅塞夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E6%96%AF%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>安地斯山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E9%AB%98%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>玻利维亚高原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%AE%9C%E9%A6%AC%E5%B0%BC%E5%B3%B0</t>
-  </si>
-  <si>
-    <t>伊宜馬尼峰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E6%96%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>安地斯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E6%A3%AE%E6%9E%97</t>
-  </si>
-  <si>
-    <t>亞馬遜森林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%B2%81%E7%BD%97%E7%9C%81</t>
-  </si>
-  <si>
-    <t>奥鲁罗省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B0%A4%E5%B0%BC%E9%B9%BD%E6%B2%BC</t>
-  </si>
-  <si>
-    <t>烏尤尼鹽沼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%81%B0%E7%8F%AD%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>科恰班巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>玻利维亚行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%98%E5%9F%BA%E8%90%A8%E5%8D%A1%E7%9C%81</t>
-  </si>
-  <si>
-    <t>丘基萨卡省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%81%B0%E7%8F%AD%E5%B7%B4%E7%9C%81</t>
-  </si>
-  <si>
-    <t>科恰班巴省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%BC%E7%9C%81</t>
-  </si>
-  <si>
-    <t>贝尼省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E6%96%AF%E7%9C%81</t>
-  </si>
-  <si>
-    <t>拉巴斯省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E5%A4%9A%E7%9C%81</t>
-  </si>
-  <si>
-    <t>潘多省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%89%98%E8%A5%BF%E7%9C%81</t>
-  </si>
-  <si>
-    <t>波托西省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E9%B2%81%E6%96%AF%E7%9C%81</t>
-  </si>
-  <si>
-    <t>圣克鲁斯省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E9%87%8C%E5%93%88%E7%9C%81</t>
-  </si>
-  <si>
-    <t>塔里哈省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%96%AF%E8%92%82%E7%B4%A2%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>梅斯蒂索人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E4%B8%98%E4%BA%9E%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>克丘亞人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%9C%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>藜麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Yuki</t>
-  </si>
-  <si>
-    <t>Yuki</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
-  </si>
-  <si>
-    <t>International Monetary Fund</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/United_Nations</t>
-  </si>
-  <si>
-    <t>United Nations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%B0%E9%97%BB</t>
-  </si>
-  <si>
-    <t>维基新闻</t>
-  </si>
-  <si>
-    <t>https://zh.wikinews.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E%E6%8A%8A%E5%A4%96%E8%B3%87%E6%B0%A3%E7%94%B0%E6%94%B6%E6%AD%B8%E5%9C%8B%E6%9C%89</t>
-  </si>
-  <si>
-    <t>n-玻利維亞把外資氣田收歸國有</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
-  </si>
-  <si>
-    <t>維基導遊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
-  </si>
-  <si>
-    <t>世界概况</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
-  </si>
-  <si>
-    <t>开放式目录</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:America</t>
-  </si>
-  <si>
-    <t>Template talk-America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
-  </si>
-  <si>
-    <t>中美 (政治地理学)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>加勒比海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>多明尼加共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>聖克里斯多福與尼維斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
-  </si>
-  <si>
-    <t>千里達及托巴哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>哥倫比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
-  </si>
-  <si>
-    <t>蘇利南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安圭拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>阿魯巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>庫拉索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
-  </si>
-  <si>
-    <t>荷屬聖馬丁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>英屬維京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>開曼群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>福克蘭群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
-  </si>
-  <si>
-    <t>法屬圭亞那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
-  </si>
-  <si>
-    <t>馬提尼克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
-  </si>
-  <si>
-    <t>法屬聖馬丁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>聖巴泰勒米島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>蒙塞拉特島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>納弗沙島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%92%8C%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>南乔治亚和南桑威奇群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E5%92%8C%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E7%8E%BB%E5%88%A9%E7%93%A6%E7%88%BE%E5%90%8C%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>美洲玻利瓦爾同盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
-  </si>
-  <si>
-    <t>安地卡及巴布達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
-  </si>
-  <si>
-    <t>聖文森及格瑞那丁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>拉丁语联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
-  </si>
-  <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BA%B3%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多明尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>烏拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>幾內亞比索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>加泰羅尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>法語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>義大利語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>葡萄牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E8%BE%93%E5%87%BA%E5%9B%BD%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>石油输出国组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>海湾地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>沙烏地阿拉伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>阿拉伯聯合大公國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
-  </si>
-  <si>
-    <t>卡達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>奈及利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
-  </si>
-  <si>
-    <t>加彭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>不结盟运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
-  </si>
-  <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
-  </si>
-  <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
   </si>
   <si>
@@ -1421,7 +1412,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -1841,7 +1832,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -1877,7 +1868,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -1931,7 +1922,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1955,22 +1946,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2721,7 +2703,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -7764,7 +7746,7 @@
         <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>284</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -7790,10 +7772,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>358</v>
+      </c>
+      <c r="F189" t="s">
         <v>359</v>
-      </c>
-      <c r="F189" t="s">
-        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7819,10 +7801,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>360</v>
+      </c>
+      <c r="F190" t="s">
         <v>361</v>
-      </c>
-      <c r="F190" t="s">
-        <v>362</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7848,10 +7830,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>362</v>
+      </c>
+      <c r="F191" t="s">
         <v>363</v>
-      </c>
-      <c r="F191" t="s">
-        <v>364</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7877,10 +7859,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>364</v>
+      </c>
+      <c r="F192" t="s">
         <v>365</v>
-      </c>
-      <c r="F192" t="s">
-        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7906,10 +7888,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>366</v>
+      </c>
+      <c r="F193" t="s">
         <v>367</v>
-      </c>
-      <c r="F193" t="s">
-        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7935,10 +7917,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>368</v>
+      </c>
+      <c r="F194" t="s">
         <v>369</v>
-      </c>
-      <c r="F194" t="s">
-        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7964,10 +7946,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>370</v>
+      </c>
+      <c r="F195" t="s">
         <v>371</v>
-      </c>
-      <c r="F195" t="s">
-        <v>372</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7993,10 +7975,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>372</v>
+      </c>
+      <c r="F196" t="s">
         <v>373</v>
-      </c>
-      <c r="F196" t="s">
-        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8022,10 +8004,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>374</v>
+      </c>
+      <c r="F197" t="s">
         <v>375</v>
-      </c>
-      <c r="F197" t="s">
-        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8051,10 +8033,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>376</v>
+      </c>
+      <c r="F198" t="s">
         <v>377</v>
-      </c>
-      <c r="F198" t="s">
-        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8080,10 +8062,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>378</v>
+      </c>
+      <c r="F199" t="s">
         <v>379</v>
-      </c>
-      <c r="F199" t="s">
-        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8109,10 +8091,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>380</v>
+      </c>
+      <c r="F200" t="s">
         <v>381</v>
-      </c>
-      <c r="F200" t="s">
-        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8167,10 +8149,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>382</v>
+      </c>
+      <c r="F202" t="s">
         <v>383</v>
-      </c>
-      <c r="F202" t="s">
-        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8196,10 +8178,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>108</v>
       </c>
       <c r="G203" t="n">
         <v>4</v>
@@ -8225,10 +8207,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>292</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8254,10 +8236,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -8283,10 +8265,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8312,10 +8294,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F207" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8341,10 +8323,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8370,10 +8352,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8399,10 +8381,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8428,10 +8410,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8457,10 +8439,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8486,10 +8468,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8515,10 +8497,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8544,10 +8526,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8573,10 +8555,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8602,10 +8584,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8631,10 +8613,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8660,10 +8642,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8689,10 +8671,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8718,10 +8700,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8747,10 +8729,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8776,10 +8758,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8805,10 +8787,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8834,10 +8816,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F225" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8863,10 +8845,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8892,10 +8874,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8921,10 +8903,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8950,10 +8932,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8979,10 +8961,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9008,10 +8990,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9066,10 +9048,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9095,10 +9077,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9124,10 +9106,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9153,10 +9135,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9182,10 +9164,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9211,10 +9193,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9240,10 +9222,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9269,10 +9251,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9298,10 +9280,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>242</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9327,10 +9309,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9356,10 +9338,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9385,13 +9367,13 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -9414,10 +9396,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9443,10 +9425,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9472,10 +9454,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9501,10 +9483,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9530,10 +9512,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9559,10 +9541,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9588,10 +9570,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9617,10 +9599,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9646,10 +9628,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9675,10 +9657,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9704,13 +9686,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9733,13 +9715,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9762,13 +9744,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -9791,13 +9773,13 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -9820,10 +9802,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9849,10 +9831,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9878,10 +9860,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9907,10 +9889,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9936,10 +9918,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9965,10 +9947,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9994,13 +9976,13 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G265" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10023,13 +10005,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10052,13 +10034,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10081,13 +10063,13 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="F268" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10110,10 +10092,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>513</v>
+        <v>442</v>
       </c>
       <c r="F269" t="s">
-        <v>514</v>
+        <v>443</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10139,10 +10121,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F270" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10168,10 +10150,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F271" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10197,10 +10179,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10226,10 +10208,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10255,10 +10237,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F274" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10284,10 +10266,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>435</v>
+        <v>520</v>
       </c>
       <c r="F275" t="s">
-        <v>436</v>
+        <v>521</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10313,10 +10295,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>432</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>433</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10342,10 +10324,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10371,10 +10353,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10400,10 +10382,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10429,10 +10411,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10458,10 +10440,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10487,10 +10469,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10516,10 +10498,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10545,10 +10527,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10574,10 +10556,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10603,10 +10585,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10632,10 +10614,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10661,10 +10643,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10690,10 +10672,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10719,10 +10701,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10748,10 +10730,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10777,10 +10759,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10806,10 +10788,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10835,10 +10817,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10864,10 +10846,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>275</v>
+        <v>558</v>
       </c>
       <c r="F295" t="s">
-        <v>276</v>
+        <v>559</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10893,10 +10875,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F296" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10922,10 +10904,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>563</v>
+        <v>279</v>
       </c>
       <c r="F297" t="s">
-        <v>564</v>
+        <v>280</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10951,10 +10933,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F298" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10980,10 +10962,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F299" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11009,10 +10991,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F300" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11038,10 +11020,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F301" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11067,10 +11049,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F302" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11096,10 +11078,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F303" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11125,10 +11107,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>289</v>
+        <v>572</v>
       </c>
       <c r="F304" t="s">
-        <v>290</v>
+        <v>573</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11154,10 +11136,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>577</v>
+        <v>289</v>
       </c>
       <c r="F305" t="s">
-        <v>578</v>
+        <v>290</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11183,10 +11165,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F306" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11212,10 +11194,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F307" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11241,10 +11223,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F308" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11270,10 +11252,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F309" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11299,10 +11281,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F310" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11328,10 +11310,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F311" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11357,10 +11339,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F312" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11386,13 +11368,13 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F313" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -11415,13 +11397,13 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F314" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -11444,10 +11426,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F315" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11473,10 +11455,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F316" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11502,10 +11484,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F317" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11531,10 +11513,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F318" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11560,10 +11542,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F319" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11589,10 +11571,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F320" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11618,10 +11600,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F321" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11647,10 +11629,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F322" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11676,10 +11658,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F323" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11705,10 +11687,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F324" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11734,10 +11716,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F325" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11763,10 +11745,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F326" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11792,10 +11774,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F327" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11821,10 +11803,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F328" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11850,10 +11832,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F329" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11879,10 +11861,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F330" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11908,10 +11890,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F331" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11937,10 +11919,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F332" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11966,10 +11948,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F333" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -11995,13 +11977,13 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F334" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G334" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -12024,10 +12006,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F335" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G335" t="n">
         <v>3</v>
@@ -12053,13 +12035,13 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F336" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G336" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -12082,10 +12064,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F337" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12111,10 +12093,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F338" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12140,10 +12122,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F339" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12169,10 +12151,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F340" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12198,47 +12180,18 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F341" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G341" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
       </c>
       <c r="I341" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="s">
-        <v>0</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1</v>
-      </c>
-      <c r="D342" t="n">
-        <v>341</v>
-      </c>
-      <c r="E342" t="s">
-        <v>649</v>
-      </c>
-      <c r="F342" t="s">
-        <v>651</v>
-      </c>
-      <c r="G342" t="n">
-        <v>1</v>
-      </c>
-      <c r="H342" t="s">
-        <v>4</v>
-      </c>
-      <c r="I342" t="n">
         <v>3</v>
       </c>
     </row>
